--- a/xlsx/扭力_intext.xlsx
+++ b/xlsx/扭力_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="287">
   <si>
     <t>扭力</t>
   </si>
@@ -29,7 +29,7 @@
     <t>物理学</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_扭力</t>
+    <t>政策_政策_混合动力车辆_扭力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E7%94%A8%E5%8A%9B</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A7%93%E6%A1%BF</t>
   </si>
   <si>
-    <t>槓桿</t>
+    <t>槓杆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E8%BD%89%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>旋轉運動</t>
+    <t>旋转运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%89%E7%A7%AF</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%BC%AA</t>
   </si>
   <si>
-    <t>飛輪</t>
+    <t>飞轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B3%E6%89%8B</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B3%E6%89%8B%E5%AE%9A%E5%89%87</t>
   </si>
   <si>
-    <t>右手定則</t>
+    <t>右手定则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E5%BF%83%E5%BC%95%E5%8A%9B</t>
@@ -173,25 +173,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E9%A0%93%E7%AC%AC%E4%BA%8C%E5%AE%9A%E5%BE%8B</t>
   </si>
   <si>
-    <t>牛頓第二定律</t>
+    <t>牛顿第二定律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%92%E5%8B%95%E9%87%8F</t>
   </si>
   <si>
-    <t>角動量</t>
+    <t>角动量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93</t>
   </si>
   <si>
-    <t>時間</t>
+    <t>时间</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E5%8B%95%E6%85%A3%E9%87%8F</t>
   </si>
   <si>
-    <t>轉動慣量</t>
+    <t>转动惯量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%92%E9%80%9F%E5%BA%A6</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E6%A2%B0%E5%8A%9F</t>
   </si>
   <si>
-    <t>機械功</t>
+    <t>机械功</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E8%BD%AC%E5%8A%A8%E8%83%BD</t>
@@ -281,13 +281,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%8F%E5%88%86%E9%90%98%E8%BD%89%E9%80%9F</t>
   </si>
   <si>
-    <t>每分鐘轉速</t>
+    <t>每分钟转速</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%8A%9B</t>
   </si>
   <si>
-    <t>馬力</t>
+    <t>马力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E5%8A%9B%E5%8F%98%E7%9F%A9%E5%99%A8</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治亞州州立大學</t>
+    <t>乔治亚州州立大学</t>
   </si>
   <si>
     <t>http://www.phy.hk/wiki/chinesehtm/Torque.htm</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%B6%93%E5%85%B8%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>Template talk-經典力學</t>
+    <t>Template talk-经典力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E5%85%B8%E5%8A%9B%E5%AD%A6</t>
@@ -353,9 +353,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%97%B4</t>
   </si>
   <si>
-    <t>时间</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E5%BA%A6</t>
   </si>
   <si>
@@ -419,13 +416,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A7%92%E5%8A%A8%E9%87%8F</t>
   </si>
   <si>
-    <t>角动量</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%85%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>慣性</t>
+    <t>惯性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E8%83%BD</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%99%9B%E5%8A%9F</t>
   </si>
   <si>
-    <t>虛功</t>
+    <t>虚功</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E7%94%A8%E9%87%8F</t>
@@ -479,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B0%A1%E8%AB%A7%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>簡諧運動</t>
+    <t>简谐运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E6%9C%97%E8%B2%9D%E7%88%BE%E5%8E%9F%E7%90%86</t>
   </si>
   <si>
-    <t>達朗貝爾原理</t>
+    <t>达朗贝尔原理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%8B%89%E6%96%B9%E7%A8%8B_(%E5%88%9A%E4%BD%93%E8%BF%90%E5%8A%A8)</t>
@@ -497,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%AF%86%E9%A0%93%E5%8E%9F%E7%90%86</t>
   </si>
   <si>
-    <t>哈密頓原理</t>
+    <t>哈密顿原理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%A0%BC%E6%9C%97%E6%97%A5%E6%96%B9%E7%A8%8B%E5%BC%8F</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9E%BA%E6%97%8B_(%E7%B0%A1%E5%96%AE%E6%A9%9F%E6%A2%B0)</t>
   </si>
   <si>
-    <t>螺旋 (簡單機械)</t>
+    <t>螺旋 (简单机械)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A5%94%E5%AD%90</t>
@@ -545,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E8%BB%B8</t>
   </si>
   <si>
-    <t>輪軸</t>
+    <t>轮轴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%A6%E5%8F%B2</t>
@@ -563,13 +557,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E8%96%A9%E5%85%8B%C2%B7%E7%89%9B%E9%A0%93</t>
   </si>
   <si>
-    <t>艾薩克·牛頓</t>
+    <t>艾萨克·牛顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E6%98%82%E5%93%88%E5%BE%B7%C2%B7%E6%AD%90%E6%8B%89</t>
   </si>
   <si>
-    <t>萊昂哈德·歐拉</t>
+    <t>莱昂哈德·欧拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A9%C2%B7%E5%8B%92%E6%9C%97%C2%B7%E8%BE%BE%E6%9C%97%E8%B4%9D%E5%B0%94</t>
@@ -581,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%C2%B7%E5%93%88%E5%AF%86%E9%A0%93</t>
   </si>
   <si>
-    <t>威廉·哈密頓</t>
+    <t>威廉·哈密顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9B%A0%E9%87%8C%E5%B8%8C%C2%B7%E8%B5%AB%E5%85%B9</t>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E7%88%BE%C2%B7%E9%9B%85%E5%8F%AF%E6%AF%94</t>
   </si>
   <si>
-    <t>卡爾·雅可比</t>
+    <t>卡尔·雅可比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%C2%B7%E8%AF%BA%E7%89%B9</t>
@@ -629,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>動力學</t>
+    <t>动力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>運動學</t>
+    <t>运动学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%8A%9B%E5%AD%A6</t>
@@ -647,19 +641,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E9%AB%94%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>天體力學</t>
+    <t>天体力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E7%BA%8C%E4%BB%8B%E8%B3%AA%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>連續介質力學</t>
+    <t>连续介质力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%B1%E8%A8%88%E5%8A%9B%E5%AD%B8</t>
   </si>
   <si>
-    <t>統計力學</t>
+    <t>统计力学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%92</t>
@@ -725,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%AB%94%E8%A7%92</t>
   </si>
   <si>
-    <t>立體角</t>
+    <t>立体角</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%83%E9%9D%A2%E5%BA%A6</t>
@@ -737,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/inverse_second</t>
@@ -815,9 +809,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AC%E5%8A%A8%E6%83%AF%E9%87%8F</t>
   </si>
   <si>
-    <t>转动惯量</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/newton_second</t>
   </si>
   <si>
@@ -845,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E9%A0%93_(%E5%96%AE%E4%BD%8D)</t>
   </si>
   <si>
-    <t>牛頓 (單位)</t>
+    <t>牛顿 (单位)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Moment_(physics)</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E9%A0%93%E7%B1%B3</t>
   </si>
   <si>
-    <t>牛頓米</t>
+    <t>牛顿米</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_equations_in_classical_mechanics</t>
@@ -2966,7 +2957,7 @@
         <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="G60" t="n">
         <v>3</v>
@@ -2992,10 +2983,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
         <v>113</v>
-      </c>
-      <c r="F61" t="s">
-        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>16</v>
@@ -3021,10 +3012,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
         <v>115</v>
-      </c>
-      <c r="F62" t="s">
-        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>7</v>
@@ -3050,10 +3041,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" t="s">
         <v>117</v>
-      </c>
-      <c r="F63" t="s">
-        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3079,10 +3070,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" t="s">
         <v>119</v>
-      </c>
-      <c r="F64" t="s">
-        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -3108,10 +3099,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" t="s">
         <v>121</v>
-      </c>
-      <c r="F65" t="s">
-        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3137,10 +3128,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" t="s">
         <v>123</v>
-      </c>
-      <c r="F66" t="s">
-        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>132</v>
@@ -3166,10 +3157,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>124</v>
+      </c>
+      <c r="F67" t="s">
         <v>125</v>
-      </c>
-      <c r="F67" t="s">
-        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3195,10 +3186,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>126</v>
+      </c>
+      <c r="F68" t="s">
         <v>127</v>
-      </c>
-      <c r="F68" t="s">
-        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -3224,10 +3215,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
         <v>129</v>
-      </c>
-      <c r="F69" t="s">
-        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>8</v>
@@ -3253,10 +3244,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" t="s">
         <v>131</v>
-      </c>
-      <c r="F70" t="s">
-        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3282,10 +3273,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F71" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="G71" t="n">
         <v>5</v>
@@ -3311,10 +3302,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F72" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3340,10 +3331,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3369,10 +3360,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3398,10 +3389,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F75" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3427,10 +3418,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F76" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G76" t="n">
         <v>4</v>
@@ -3456,10 +3447,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F77" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3543,10 +3534,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F80" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3572,10 +3563,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F81" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3601,10 +3592,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3630,10 +3621,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3659,10 +3650,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F84" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3688,10 +3679,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3717,10 +3708,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F86" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3746,10 +3737,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F87" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3775,10 +3766,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F88" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3804,10 +3795,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F89" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3833,10 +3824,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F90" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3862,10 +3853,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F91" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3891,10 +3882,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F92" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3920,10 +3911,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F93" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3949,10 +3940,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3978,10 +3969,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F95" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4007,10 +3998,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F96" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4036,10 +4027,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F97" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -4065,10 +4056,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4094,10 +4085,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4123,10 +4114,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F100" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G100" t="n">
         <v>4</v>
@@ -4152,10 +4143,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F101" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4181,10 +4172,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F102" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>4</v>
@@ -4210,10 +4201,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F103" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4239,10 +4230,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F104" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4268,10 +4259,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F105" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4297,10 +4288,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F106" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4326,10 +4317,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F107" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4355,10 +4346,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4384,10 +4375,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4413,10 +4404,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F110" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4442,10 +4433,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F111" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4471,10 +4462,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F112" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4500,10 +4491,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4558,10 +4549,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G115" t="n">
         <v>571</v>
@@ -4587,10 +4578,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4616,10 +4607,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4645,10 +4636,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4674,10 +4665,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -4703,10 +4694,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G120" t="n">
         <v>365</v>
@@ -4732,10 +4723,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4761,13 +4752,13 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H122" t="s">
         <v>4</v>
@@ -4790,10 +4781,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -4819,10 +4810,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4877,10 +4868,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4906,13 +4897,13 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="s">
         <v>4</v>
@@ -4935,10 +4926,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -4964,10 +4955,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -4993,10 +4984,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5022,10 +5013,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -5051,13 +5042,13 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H132" t="s">
         <v>4</v>
@@ -5080,10 +5071,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5109,10 +5100,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5138,13 +5129,13 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="s">
         <v>4</v>
@@ -5167,10 +5158,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5196,13 +5187,13 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H137" t="s">
         <v>4</v>
@@ -5225,13 +5216,13 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="s">
         <v>4</v>
@@ -5254,10 +5245,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5283,10 +5274,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5312,10 +5303,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G141" t="n">
         <v>14</v>
@@ -5341,10 +5332,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>58</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5370,10 +5361,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5399,10 +5390,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G144" t="n">
         <v>4</v>
@@ -5428,10 +5419,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5457,10 +5448,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5486,10 +5477,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G147" t="n">
         <v>36</v>
@@ -5544,10 +5535,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5573,10 +5564,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F150" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5602,10 +5593,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F151" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5631,10 +5622,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F152" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G152" t="n">
         <v>22</v>
@@ -5660,10 +5651,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F153" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -5689,10 +5680,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F154" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -5718,10 +5709,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F155" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
